--- a/MODELOS/BASE DE DATOS/Normalización.xlsx
+++ b/MODELOS/BASE DE DATOS/Normalización.xlsx
@@ -951,7 +951,7 @@
   <dimension ref="B1:AN23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AN32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,7 +2808,7 @@
   <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B5" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MODELOS/BASE DE DATOS/Normalización.xlsx
+++ b/MODELOS/BASE DE DATOS/Normalización.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huert\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sena\ADSI\PROYECTO\WebWuky\MODELOS\BASE DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCA3FEF3-3DB0-4818-AFE1-1FA731516841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497F1E3D-BE8C-4B07-B976-8DE959248C4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1FN" sheetId="1" r:id="rId1"/>
     <sheet name="2FN" sheetId="2" r:id="rId2"/>
     <sheet name="3FN" sheetId="4" r:id="rId3"/>
     <sheet name="Hoja1" sheetId="5" r:id="rId4"/>
+    <sheet name="Diccionario Datos" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="234">
   <si>
     <t>mascota</t>
   </si>
@@ -638,6 +639,156 @@
   </si>
   <si>
     <t>factura_cliente</t>
+  </si>
+  <si>
+    <t>Booleano que indica si el roducto es fabricado o comprado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID de la clase </t>
+  </si>
+  <si>
+    <t>Impuesto asociado al producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor númerico de la actualización del producto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha en que se realizó el pedido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha en que se factura el pedido </t>
+  </si>
+  <si>
+    <t>Valor de la cantidad de productos agregados</t>
+  </si>
+  <si>
+    <t>Atributo booleano que describe si un producto es fabricado o comprado</t>
+  </si>
+  <si>
+    <t>Especificación del tipo de caracteristica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor de la cantidad del producto comprado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombrre de la categoría </t>
+  </si>
+  <si>
+    <t>se describe si la mascota de sexo "Macho" o "Hembra"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caracteres para ingreso a la plataforma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impuesto de retención </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titulo/nombre de la clase producto acual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">medidas del producto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Especificación de la categoría </t>
+  </si>
+  <si>
+    <t>Se especifica si la solicitud de pedido se hizo desde facebokk o la tienda virtual</t>
+  </si>
+  <si>
+    <t>Se describe la parte en que estará ubicada la infografí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrición de la clase producto acual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tamaño de la mascota </t>
+  </si>
+  <si>
+    <t>se describe si el cliente es de genero "Masculino" o "femenino"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor asignado al producto </t>
+  </si>
+  <si>
+    <t>Valor de la suma de los productos</t>
+  </si>
+  <si>
+    <t>Tipo de moneda en que se maneja (atributo solicitado por facebook)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disminución al valor del producto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atributo que permite vincular sesión facebook del cliente </t>
+  </si>
+  <si>
+    <t>Se especifica si el pedido esta en "proceso", "entregado" o "cancelado"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atributo booleano que describe si el producto está habilitado o inhabilitado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atributo que permite vincular sesión gmail del cliente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha en que inicia el estado del pedido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id del producto que asigna el proveedor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre de la raza de la mascota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hora en que inicia el estado del pedido </t>
+  </si>
+  <si>
+    <t>Id del producto que asigna Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duración de tiempo en el estado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atributo booleano que describe si un producto se encuentra visualizado en facebook o no </t>
+  </si>
+  <si>
+    <t>Se describe si la factura esta en elaboración o ya fue emitida</t>
+  </si>
+  <si>
+    <t>Atributo booleano que describe si un producto se encuentra disponible o no disponible en Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha en que inicia el estado de la factura </t>
+  </si>
+  <si>
+    <t>Especificidad del producto</t>
+  </si>
+  <si>
+    <t>se describe si la mascota es "Perro" o "Gato"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hora en que inicia el estado de de la factura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor de la cantidad de productos en Stock </t>
+  </si>
+  <si>
+    <t>telefono_proveedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id de la clase actual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre de la marca del producto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección de enlace de donde se extrae la imagen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fecha de la afiliación a la entidad </t>
+  </si>
+  <si>
+    <t>Se describe las entidades como "eps" "arl" "pensión"</t>
   </si>
 </sst>
 </file>
@@ -690,7 +841,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,8 +854,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -736,11 +893,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -841,6 +1057,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -850,8 +1069,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1989,7 +2265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AN30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X20" sqref="W20:X20"/>
     </sheetView>
   </sheetViews>
@@ -3295,7 +3571,7 @@
       </c>
     </row>
     <row r="15" spans="2:40" ht="21" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="34" t="s">
         <v>116</v>
       </c>
       <c r="C15" s="8"/>
@@ -3466,248 +3742,244 @@
       <c r="A2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="B4" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
@@ -3720,6 +3992,1449 @@
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9B9220-865A-427B-9BBC-3614A906C40D}">
+  <dimension ref="B1:BD32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" customWidth="1"/>
+    <col min="14" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" customWidth="1"/>
+    <col min="17" max="18" width="13.85546875" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" customWidth="1"/>
+    <col min="22" max="22" width="2.7109375" customWidth="1"/>
+    <col min="23" max="24" width="19.28515625" customWidth="1"/>
+    <col min="25" max="25" width="2.7109375" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" customWidth="1"/>
+    <col min="28" max="28" width="2.7109375" customWidth="1"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14" customWidth="1"/>
+    <col min="31" max="31" width="2.7109375" customWidth="1"/>
+    <col min="32" max="32" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.7109375" customWidth="1"/>
+    <col min="34" max="34" width="2.7109375" customWidth="1"/>
+    <col min="35" max="35" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.7109375" customWidth="1"/>
+    <col min="37" max="37" width="2.7109375" customWidth="1"/>
+    <col min="38" max="39" width="12.42578125" customWidth="1"/>
+    <col min="40" max="40" width="2.7109375" customWidth="1"/>
+    <col min="41" max="42" width="12.28515625" customWidth="1"/>
+    <col min="43" max="43" width="2.7109375" customWidth="1"/>
+    <col min="46" max="46" width="2.7109375" customWidth="1"/>
+    <col min="47" max="48" width="14.140625" customWidth="1"/>
+    <col min="49" max="49" width="2.7109375" customWidth="1"/>
+    <col min="50" max="50" width="13.85546875" customWidth="1"/>
+    <col min="51" max="51" width="2.7109375" customWidth="1"/>
+    <col min="53" max="53" width="2.7109375" customWidth="1"/>
+    <col min="55" max="55" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:56" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:56" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="45"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="47"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="47"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="39"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS2" s="51"/>
+      <c r="AU2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV2" s="52"/>
+      <c r="AX2" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ2" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB2" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD2" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:56" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="X3" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA3" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD3" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG3" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ3" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM3" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP3" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS3" s="15"/>
+      <c r="AU3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV3" s="4"/>
+      <c r="AX3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BD3" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:56" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" s="13"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="13"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS4" s="13"/>
+      <c r="AU4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV4" s="4"/>
+      <c r="AX4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ4" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD4" s="4"/>
+    </row>
+    <row r="5" spans="2:56" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ5" s="13"/>
+      <c r="AL5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS5" s="13"/>
+      <c r="AU5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV5" s="8"/>
+      <c r="AX5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB5" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:56" ht="90" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="13"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="9"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD6" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ6" s="13"/>
+      <c r="AL6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM6" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AR6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS6" s="13"/>
+      <c r="AU6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV6" s="4"/>
+      <c r="AX6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ6" s="19"/>
+      <c r="BB6" s="19"/>
+    </row>
+    <row r="7" spans="2:56" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="4"/>
+      <c r="AL7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP7" s="51"/>
+      <c r="AU7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV7" s="8"/>
+      <c r="AX7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ7" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:56" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="9"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" s="13"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG8" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH8" s="4"/>
+      <c r="AO8" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP8" s="13"/>
+      <c r="AZ8" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:56" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="13"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA9" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="4"/>
+      <c r="AL9" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM9" s="41"/>
+      <c r="AO9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP9" s="13"/>
+      <c r="AU9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV9" s="52"/>
+      <c r="AX9" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ9" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:56" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="50"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA10" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AL10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM10" s="13"/>
+      <c r="AU10" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV10" s="1"/>
+      <c r="AX10" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:56" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="R11" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AL11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM11" s="13"/>
+      <c r="AU11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV11" s="1"/>
+      <c r="AX11" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:56" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="13"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="4"/>
+      <c r="AL12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM12" s="13"/>
+      <c r="AX12" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:56" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="13"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA13" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD13" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG13" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="2:56" ht="75" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" s="50"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="13"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA14" s="9"/>
+      <c r="AC14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="4"/>
+      <c r="AX14" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="2:56" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="Q15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="R15" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="4"/>
+      <c r="AC15" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="4"/>
+      <c r="AX15" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:56" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="Q16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="4"/>
+      <c r="AC16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD16" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG16" s="13"/>
+      <c r="AX16" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="W17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="4"/>
+      <c r="AC17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD17" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG17" s="13"/>
+    </row>
+    <row r="18" spans="2:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="W18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="4"/>
+      <c r="AC18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD18" s="9"/>
+      <c r="AF18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG18" s="13"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="W19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="4"/>
+    </row>
+    <row r="20" spans="2:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="Y20" s="4"/>
+      <c r="AF20" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG20" s="43"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="W21" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="X21" s="48"/>
+      <c r="AF21" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG21" s="13"/>
+    </row>
+    <row r="22" spans="2:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="W22" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="X22" s="13"/>
+      <c r="AF22" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG22" s="13"/>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="W23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="X23" s="13"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B24" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B25" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="W25" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="X25" s="50"/>
+    </row>
+    <row r="26" spans="2:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="X26" s="53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="W27" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="X27" s="13"/>
+    </row>
+    <row r="28" spans="2:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="W28" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="W30" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="X30" s="50"/>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="W31" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33" ht="60" x14ac:dyDescent="0.25">
+      <c r="W32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MODELOS/BASE DE DATOS/Normalización.xlsx
+++ b/MODELOS/BASE DE DATOS/Normalización.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sena\ADSI\PROYECTO\WebWuky\MODELOS\BASE DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497F1E3D-BE8C-4B07-B976-8DE959248C4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5861B1-AB3A-4A64-BB32-016D9E6A2738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1FN" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="232">
   <si>
     <t>mascota</t>
   </si>
@@ -459,12 +459,6 @@
   </si>
   <si>
     <t>id_contrato</t>
-  </si>
-  <si>
-    <t>id_afiliación</t>
-  </si>
-  <si>
-    <t>empleado_afiliación</t>
   </si>
   <si>
     <t>id_empleado</t>
@@ -1060,6 +1054,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1069,65 +1081,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1419,7 +1413,7 @@
   <dimension ref="B1:AN23"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,11 +1550,11 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="14" t="s">
@@ -1568,23 +1562,23 @@
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="W3" s="7"/>
       <c r="X3" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Y3" s="7"/>
       <c r="Z3" s="14" t="s">
@@ -2035,13 +2029,13 @@
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="W12" s="4"/>
     </row>
     <row r="13" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -2075,7 +2069,7 @@
     </row>
     <row r="14" spans="2:40" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="22"/>
@@ -2101,7 +2095,7 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="W14" s="4"/>
     </row>
@@ -2151,7 +2145,7 @@
       </c>
       <c r="Q16" s="4"/>
       <c r="V16" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:22" ht="30" x14ac:dyDescent="0.25">
@@ -2172,7 +2166,7 @@
       </c>
       <c r="Q17" s="4"/>
       <c r="V17" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
@@ -2265,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AN30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X20" sqref="W20:X20"/>
+    <sheetView showGridLines="0" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,7 +2310,7 @@
     <row r="1" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:40" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="25" t="s">
@@ -2336,7 +2330,7 @@
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>35</v>
@@ -2347,14 +2341,14 @@
       </c>
       <c r="Q2" s="20"/>
       <c r="R2" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S2" s="20"/>
       <c r="T2" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="V2" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="W2" s="20"/>
       <c r="X2" s="24" t="s">
@@ -2408,10 +2402,10 @@
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="13" t="s">
@@ -2419,11 +2413,11 @@
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S3" s="6"/>
       <c r="T3" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="V3" s="28" t="s">
         <v>95</v>
@@ -2462,7 +2456,7 @@
     </row>
     <row r="4" spans="2:40" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>17</v>
@@ -2482,6 +2476,9 @@
       <c r="L4" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="N4" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="P4" s="13" t="s">
         <v>44</v>
       </c>
@@ -2489,10 +2486,10 @@
         <v>44</v>
       </c>
       <c r="T4" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V4" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="X4" s="13" t="s">
         <v>54</v>
@@ -2522,7 +2519,7 @@
     </row>
     <row r="5" spans="2:40" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>6</v>
@@ -2541,8 +2538,8 @@
         <v>25</v>
       </c>
       <c r="M5" s="20"/>
-      <c r="N5" s="16" t="s">
-        <v>74</v>
+      <c r="N5" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>45</v>
@@ -2551,10 +2548,10 @@
         <v>49</v>
       </c>
       <c r="T5" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Z5" s="13" t="s">
         <v>62</v>
@@ -2597,7 +2594,7 @@
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P6" s="13" t="s">
         <v>73</v>
@@ -2606,10 +2603,10 @@
         <v>50</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V6" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Z6" s="13" t="s">
         <v>64</v>
@@ -2635,13 +2632,13 @@
         <v>26</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R7" s="13" t="s">
         <v>47</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Z7" s="13" t="s">
         <v>65</v>
@@ -2669,8 +2666,8 @@
       <c r="L8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="13" t="s">
-        <v>37</v>
+      <c r="N8" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="P8" s="25" t="s">
         <v>103</v>
@@ -2679,10 +2676,10 @@
         <v>48</v>
       </c>
       <c r="T8" s="24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AB8" s="28" t="s">
         <v>95</v>
@@ -2699,14 +2696,17 @@
       <c r="L9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="16" t="s">
-        <v>39</v>
+      <c r="N9" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="P9" s="13" t="s">
         <v>95</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="V9" s="28" t="s">
+        <v>158</v>
       </c>
       <c r="Z9" s="25" t="s">
         <v>106</v>
@@ -2738,9 +2738,6 @@
       <c r="L10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="29" t="s">
-        <v>34</v>
-      </c>
       <c r="P10" s="13" t="s">
         <v>19</v>
       </c>
@@ -2748,7 +2745,7 @@
         <v>82</v>
       </c>
       <c r="T10" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Z10" s="28" t="s">
         <v>95</v>
@@ -2775,7 +2772,7 @@
         <v>100</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Z11" s="28" t="s">
         <v>22</v>
@@ -2826,7 +2823,7 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="L13" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N13" s="13" t="s">
         <v>95</v>
@@ -2835,7 +2832,7 @@
         <v>101</v>
       </c>
       <c r="R13" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="U13" s="32"/>
     </row>
@@ -2860,7 +2857,7 @@
         <v>102</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="U14" s="33"/>
       <c r="AH14" s="25" t="s">
@@ -2882,11 +2879,8 @@
       <c r="L15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="P15" s="28" t="s">
-        <v>160</v>
-      </c>
       <c r="R15" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="U15" s="32"/>
       <c r="AH15" s="13" t="s">
@@ -2909,7 +2903,7 @@
         <v>43</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="U16" s="32"/>
       <c r="AH16" s="13" t="s">
@@ -2926,14 +2920,14 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="L17" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="29" t="s">
         <v>95</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="U17" s="32"/>
     </row>
@@ -2947,14 +2941,14 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="L18" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N18" s="29" t="s">
         <v>99</v>
       </c>
       <c r="O18" s="6"/>
       <c r="R18" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
@@ -2971,7 +2965,7 @@
       </c>
       <c r="O19" s="6"/>
       <c r="R19" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
@@ -2983,11 +2977,11 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="L20" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O20" s="6"/>
       <c r="R20" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="U20" s="32"/>
     </row>
@@ -2998,13 +2992,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="L21" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N21" s="24" t="s">
         <v>98</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="U21" s="32"/>
     </row>
@@ -3039,11 +3033,10 @@
       <c r="R24" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="V24" s="32"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="R25" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V25" s="32"/>
     </row>
@@ -3054,6 +3047,7 @@
       <c r="R26" s="13" t="s">
         <v>19</v>
       </c>
+      <c r="V26" s="32"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
@@ -3091,8 +3085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AN22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="O1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3108,7 +3102,7 @@
     <col min="9" max="9" width="2.7109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="20.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.7109375" style="4" customWidth="1"/>
     <col min="14" max="14" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.7109375" style="4" customWidth="1"/>
@@ -3142,7 +3136,7 @@
     <row r="1" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:40" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="25" t="s">
@@ -3166,7 +3160,7 @@
       </c>
       <c r="M2" s="20"/>
       <c r="N2" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O2" s="20"/>
       <c r="P2" s="24" t="s">
@@ -3240,11 +3234,11 @@
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="13" t="s">
@@ -3316,10 +3310,10 @@
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X4" s="13" t="s">
         <v>120</v>
@@ -3328,7 +3322,7 @@
         <v>105</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AD4" s="13" t="s">
         <v>108</v>
@@ -3337,10 +3331,10 @@
         <v>120</v>
       </c>
       <c r="AH4" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AN4" s="27"/>
     </row>
@@ -3357,10 +3351,10 @@
       <c r="V5" s="27"/>
       <c r="AA5" s="8"/>
       <c r="AF5" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AH5" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:40" ht="30" x14ac:dyDescent="0.25">
@@ -3379,7 +3373,10 @@
         <v>104</v>
       </c>
       <c r="V6" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="X6" s="24" t="s">
+        <v>171</v>
       </c>
       <c r="Z6" s="25" t="s">
         <v>106</v>
@@ -3400,7 +3397,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P7" s="13" t="s">
         <v>95</v>
@@ -3412,7 +3409,10 @@
         <v>95</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="Z7" s="28" t="s">
         <v>95</v>
@@ -3439,11 +3439,17 @@
       <c r="L8" s="13" t="s">
         <v>95</v>
       </c>
+      <c r="R8" s="18" t="s">
+        <v>102</v>
+      </c>
       <c r="T8" s="18" t="s">
         <v>102</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="Z8" s="28" t="s">
         <v>108</v>
@@ -3464,16 +3470,19 @@
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P9" s="24" t="s">
         <v>43</v>
       </c>
+      <c r="R9" s="13" t="s">
+        <v>125</v>
+      </c>
       <c r="T9" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V9" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AH9" s="13" t="s">
         <v>110</v>
@@ -3488,19 +3497,19 @@
       <c r="I10" s="26"/>
       <c r="M10" s="8"/>
       <c r="N10" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P10" s="29" t="s">
         <v>95</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="X10" s="24" t="s">
-        <v>173</v>
+        <v>163</v>
+      </c>
+      <c r="X10" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="AH10" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.25">
@@ -3518,10 +3527,10 @@
         <v>99</v>
       </c>
       <c r="X11" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40" ht="30" x14ac:dyDescent="0.25">
       <c r="D12" s="30"/>
       <c r="E12" s="26"/>
       <c r="G12" s="26"/>
@@ -3529,8 +3538,8 @@
       <c r="L12" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="X12" s="13" t="s">
-        <v>176</v>
+      <c r="X12" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="AH12" s="25" t="s">
         <v>109</v>
@@ -3544,7 +3553,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="26"/>
       <c r="N13" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P13" s="24" t="s">
         <v>98</v>
@@ -3553,7 +3562,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="2:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="30"/>
@@ -3561,13 +3570,10 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="N14" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P14" s="29" t="s">
         <v>95</v>
-      </c>
-      <c r="X14" s="25" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:40" ht="21" x14ac:dyDescent="0.25">
@@ -3581,23 +3587,17 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="N15" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O15" s="5"/>
-      <c r="X15" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="2:40" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="21"/>
       <c r="I16" s="8"/>
-      <c r="X16" s="18" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="17" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
@@ -3609,21 +3609,17 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="I17" s="8"/>
+        <v>137</v>
+      </c>
       <c r="J17" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="L17" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="N17" s="24" t="s">
-        <v>169</v>
+        <v>141</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
@@ -3638,56 +3634,48 @@
       <c r="F18" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I18" s="21"/>
+        <v>138</v>
+      </c>
       <c r="J18" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="N18" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L18" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Q18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="N19" s="13" t="s">
+      <c r="H19" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Q19" s="6"/>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="G20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="N20" s="13" t="s">
+      <c r="L20" s="13" t="s">
         <v>47</v>
       </c>
       <c r="Q20" s="6"/>
@@ -3695,15 +3683,15 @@
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="N21" s="13" t="s">
-        <v>167</v>
+      <c r="L21" s="13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="N22" s="13" t="s">
-        <v>168</v>
+      <c r="L22" s="13" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3742,244 +3730,250 @@
       <c r="A2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="B3" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="B4" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
@@ -3992,12 +3986,6 @@
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4007,7 +3995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9B9220-865A-427B-9BBC-3614A906C40D}">
   <dimension ref="B1:BD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4061,84 +4049,84 @@
   <sheetData>
     <row r="1" spans="2:56" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:56" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="41"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="43"/>
+      <c r="I2" s="48"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="45"/>
+      <c r="L2" s="57"/>
       <c r="M2" s="20"/>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="47"/>
+      <c r="O2" s="50"/>
       <c r="P2" s="20"/>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="47"/>
+      <c r="R2" s="50"/>
       <c r="S2" s="20"/>
-      <c r="T2" s="38" t="s">
+      <c r="T2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="39"/>
+      <c r="U2" s="55"/>
       <c r="V2" s="20"/>
-      <c r="W2" s="48" t="s">
+      <c r="W2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="48"/>
+      <c r="X2" s="44"/>
       <c r="Y2" s="20"/>
-      <c r="Z2" s="48" t="s">
+      <c r="Z2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="48"/>
+      <c r="AA2" s="44"/>
       <c r="AB2" s="20"/>
-      <c r="AC2" s="49" t="s">
+      <c r="AC2" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="AD2" s="50"/>
+      <c r="AD2" s="46"/>
       <c r="AE2" s="20"/>
-      <c r="AF2" s="49" t="s">
+      <c r="AF2" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="50"/>
+      <c r="AG2" s="46"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="49" t="s">
+      <c r="AI2" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="AJ2" s="50"/>
+      <c r="AJ2" s="46"/>
       <c r="AK2" s="20"/>
-      <c r="AL2" s="46" t="s">
+      <c r="AL2" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="AM2" s="47"/>
+      <c r="AM2" s="50"/>
       <c r="AN2" s="20"/>
-      <c r="AO2" s="40" t="s">
+      <c r="AO2" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="AP2" s="41"/>
+      <c r="AP2" s="52"/>
       <c r="AQ2" s="21"/>
-      <c r="AR2" s="51" t="s">
+      <c r="AR2" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="AS2" s="51"/>
+      <c r="AS2" s="53"/>
       <c r="AU2" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="AV2" s="52"/>
+      <c r="AV2" s="35"/>
       <c r="AX2" s="25" t="s">
         <v>84</v>
       </c>
@@ -4156,99 +4144,99 @@
       <c r="B3" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="53" t="s">
-        <v>151</v>
+      <c r="C3" s="36" t="s">
+        <v>149</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="53" t="s">
-        <v>185</v>
+      <c r="F3" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="53" t="s">
-        <v>185</v>
+      <c r="I3" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="53" t="s">
-        <v>185</v>
+      <c r="L3" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="53" t="s">
-        <v>185</v>
+      <c r="O3" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="R3" s="53" t="s">
-        <v>185</v>
+      <c r="R3" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="U3" s="53" t="s">
-        <v>185</v>
+      <c r="U3" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="X3" s="53" t="s">
-        <v>185</v>
+      <c r="X3" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="AA3" s="53" t="s">
-        <v>185</v>
+      <c r="AA3" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="AD3" s="53" t="s">
-        <v>185</v>
+      <c r="AD3" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="AG3" s="53" t="s">
-        <v>185</v>
+      <c r="AG3" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="AJ3" s="53" t="s">
-        <v>185</v>
+      <c r="AJ3" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="AK3" s="1"/>
       <c r="AL3" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="AM3" s="53" t="s">
-        <v>185</v>
+      <c r="AM3" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="AN3" s="1"/>
       <c r="AO3" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="AP3" s="53" t="s">
-        <v>185</v>
+      <c r="AP3" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="15" t="s">
@@ -4276,11 +4264,11 @@
       <c r="B4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>186</v>
+      <c r="C4" s="36" t="s">
+        <v>184</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="37" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="10"/>
@@ -4288,16 +4276,16 @@
       <c r="H4" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="55" t="s">
-        <v>187</v>
+      <c r="I4" s="38" t="s">
+        <v>185</v>
       </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="39" t="s">
         <v>59</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="54" t="s">
+      <c r="N4" s="37" t="s">
         <v>117</v>
       </c>
       <c r="O4" s="9"/>
@@ -4321,28 +4309,28 @@
         <v>44</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AE4" s="4"/>
       <c r="AF4" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="13" t="s">
         <v>54</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AK4" s="4"/>
       <c r="AL4" s="15" t="s">
@@ -4378,15 +4366,15 @@
       <c r="B5" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="53" t="s">
-        <v>191</v>
+      <c r="C5" s="36" t="s">
+        <v>189</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="13" t="s">
@@ -4398,28 +4386,28 @@
         <v>60</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="13" t="s">
         <v>19</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="13" t="s">
         <v>16</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="13" t="s">
         <v>25</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="V5" s="4"/>
       <c r="W5" s="13" t="s">
@@ -4436,7 +4424,7 @@
         <v>49</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AE5" s="4"/>
       <c r="AF5" s="13" t="s">
@@ -4480,15 +4468,15 @@
       <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="53" t="s">
-        <v>198</v>
+      <c r="C6" s="36" t="s">
+        <v>196</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="13" t="s">
@@ -4503,7 +4491,7 @@
         <v>6</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="13" t="s">
@@ -4520,21 +4508,21 @@
         <v>25</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="13" t="s">
         <v>73</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="13" t="s">
         <v>50</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AE6" s="4"/>
       <c r="AF6" s="13" t="s">
@@ -4550,7 +4538,7 @@
         <v>64</v>
       </c>
       <c r="AM6" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AN6" s="4"/>
       <c r="AO6" s="19"/>
@@ -4573,8 +4561,8 @@
       <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="53" t="s">
-        <v>203</v>
+      <c r="C7" s="36" t="s">
+        <v>201</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -4595,14 +4583,14 @@
         <v>22</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="13" t="s">
         <v>26</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="V7" s="4"/>
       <c r="W7" s="13" t="s">
@@ -4628,10 +4616,10 @@
       </c>
       <c r="AM7" s="13"/>
       <c r="AN7" s="4"/>
-      <c r="AO7" s="51" t="s">
+      <c r="AO7" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="AP7" s="51"/>
+      <c r="AP7" s="53"/>
       <c r="AU7" s="9" t="s">
         <v>89</v>
       </c>
@@ -4647,8 +4635,8 @@
       <c r="B8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>206</v>
+      <c r="C8" s="36" t="s">
+        <v>204</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
@@ -4679,26 +4667,26 @@
         <v>26</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="51" t="s">
+      <c r="Z8" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="AA8" s="51"/>
+      <c r="AA8" s="53"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AE8" s="4"/>
       <c r="AF8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AO8" s="13" t="s">
@@ -4713,8 +4701,8 @@
       <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>208</v>
+      <c r="C9" s="36" t="s">
+        <v>206</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -4747,11 +4735,11 @@
       <c r="Z9" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="AA9" s="53" t="s">
-        <v>185</v>
+      <c r="AA9" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="AB9" s="4"/>
-      <c r="AC9" s="56" t="s">
+      <c r="AC9" s="39" t="s">
         <v>51</v>
       </c>
       <c r="AD9" s="13"/>
@@ -4761,10 +4749,10 @@
       </c>
       <c r="AG9" s="13"/>
       <c r="AH9" s="4"/>
-      <c r="AL9" s="40" t="s">
+      <c r="AL9" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="AM9" s="41"/>
+      <c r="AM9" s="52"/>
       <c r="AO9" s="13" t="s">
         <v>19</v>
       </c>
@@ -4772,7 +4760,7 @@
       <c r="AU9" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="AV9" s="52"/>
+      <c r="AV9" s="35"/>
       <c r="AX9" s="25" t="s">
         <v>90</v>
       </c>
@@ -4784,8 +4772,8 @@
       <c r="B10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="53" t="s">
-        <v>209</v>
+      <c r="C10" s="36" t="s">
+        <v>207</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="4"/>
@@ -4802,16 +4790,16 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="49" t="s">
+      <c r="Q10" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="50"/>
+      <c r="R10" s="46"/>
       <c r="S10" s="2"/>
       <c r="T10" s="13" t="s">
         <v>29</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="13" t="s">
@@ -4823,10 +4811,10 @@
         <v>19</v>
       </c>
       <c r="AA10" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AB10" s="4"/>
-      <c r="AC10" s="56" t="s">
+      <c r="AC10" s="39" t="s">
         <v>76</v>
       </c>
       <c r="AD10" s="13"/>
@@ -4848,8 +4836,8 @@
       <c r="B11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="53" t="s">
-        <v>212</v>
+      <c r="C11" s="36" t="s">
+        <v>210</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -4869,15 +4857,15 @@
       <c r="Q11" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="R11" s="53" t="s">
-        <v>185</v>
+      <c r="R11" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="13" t="s">
         <v>30</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="13" t="s">
@@ -4889,7 +4877,7 @@
         <v>100</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -4912,8 +4900,8 @@
       <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="53" t="s">
-        <v>215</v>
+      <c r="C12" s="36" t="s">
+        <v>213</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4934,7 +4922,7 @@
         <v>19</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="13" t="s">
@@ -4951,18 +4939,18 @@
         <v>88</v>
       </c>
       <c r="AA12" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AB12" s="4"/>
-      <c r="AC12" s="42" t="s">
+      <c r="AC12" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="AD12" s="43"/>
+      <c r="AD12" s="48"/>
       <c r="AE12" s="4"/>
-      <c r="AF12" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG12" s="50"/>
+      <c r="AF12" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG12" s="46"/>
       <c r="AH12" s="4"/>
       <c r="AL12" s="13" t="s">
         <v>108</v>
@@ -4976,8 +4964,8 @@
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="53" t="s">
-        <v>218</v>
+      <c r="C13" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -5007,21 +4995,21 @@
         <v>101</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="AD13" s="53" t="s">
-        <v>185</v>
+      <c r="AD13" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="AE13" s="4"/>
       <c r="AF13" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="AG13" s="53" t="s">
-        <v>185</v>
+      <c r="AG13" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="AH13" s="4"/>
     </row>
@@ -5029,8 +5017,8 @@
       <c r="B14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="53" t="s">
-        <v>220</v>
+      <c r="C14" s="36" t="s">
+        <v>218</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
@@ -5045,10 +5033,10 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="49" t="s">
+      <c r="Q14" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="R14" s="50"/>
+      <c r="R14" s="46"/>
       <c r="S14" s="1"/>
       <c r="T14" s="13" t="s">
         <v>33</v>
@@ -5068,7 +5056,7 @@
         <v>19</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AE14" s="4"/>
       <c r="AF14" s="13" t="s">
@@ -5084,8 +5072,8 @@
       <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="53" t="s">
-        <v>222</v>
+      <c r="C15" s="36" t="s">
+        <v>220</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -5102,8 +5090,8 @@
       <c r="Q15" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="R15" s="53" t="s">
-        <v>185</v>
+      <c r="R15" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="V15" s="5"/>
       <c r="W15" s="13" t="s">
@@ -5115,11 +5103,11 @@
         <v>100</v>
       </c>
       <c r="AD15" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AE15" s="4"/>
       <c r="AF15" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AG15" s="9"/>
       <c r="AH15" s="4"/>
@@ -5131,8 +5119,8 @@
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="53" t="s">
-        <v>224</v>
+      <c r="C16" s="36" t="s">
+        <v>222</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -5150,7 +5138,7 @@
         <v>19</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="W16" s="13" t="s">
         <v>38</v>
@@ -5161,7 +5149,7 @@
         <v>88</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AF16" s="13" t="s">
         <v>19</v>
@@ -5175,8 +5163,8 @@
       <c r="B17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="53" t="s">
-        <v>227</v>
+      <c r="C17" s="36" t="s">
+        <v>225</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -5199,7 +5187,7 @@
         <v>101</v>
       </c>
       <c r="AD17" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AF17" s="13" t="s">
         <v>31</v>
@@ -5210,7 +5198,7 @@
       <c r="B18" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -5239,7 +5227,7 @@
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
-      <c r="C19" s="53"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -5259,10 +5247,10 @@
       <c r="Y19" s="4"/>
     </row>
     <row r="20" spans="2:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="48"/>
+      <c r="C20" s="44"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
@@ -5273,17 +5261,17 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="Y20" s="4"/>
-      <c r="AF20" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="AG20" s="43"/>
+      <c r="AF20" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG20" s="48"/>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -5294,12 +5282,12 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="W21" s="48" t="s">
+      <c r="W21" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="X21" s="48"/>
+      <c r="X21" s="44"/>
       <c r="AF21" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AG21" s="13"/>
     </row>
@@ -5308,7 +5296,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -5321,7 +5309,7 @@
       </c>
       <c r="X22" s="13"/>
       <c r="AF22" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AG22" s="13"/>
     </row>
@@ -5336,37 +5324,37 @@
       <c r="X23" s="13"/>
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="48"/>
+      <c r="C24" s="44"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="40" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="W25" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="W25" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="X25" s="50"/>
+      <c r="X25" s="46"/>
     </row>
     <row r="26" spans="2:33" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="X26" s="53" t="s">
-        <v>185</v>
+      <c r="X26" s="36" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.25">
@@ -5380,21 +5368,21 @@
         <v>97</v>
       </c>
       <c r="X28" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="W30" s="49" t="s">
+      <c r="W30" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="X30" s="50"/>
+      <c r="X30" s="46"/>
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="W31" s="13" t="s">
         <v>95</v>
       </c>
       <c r="X31" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="2:33" ht="60" x14ac:dyDescent="0.25">
@@ -5402,26 +5390,17 @@
         <v>19</v>
       </c>
       <c r="X32" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="AL9:AM9"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="W2:X2"/>
@@ -5429,12 +5408,21 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Q10:R10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MODELOS/BASE DE DATOS/Normalización.xlsx
+++ b/MODELOS/BASE DE DATOS/Normalización.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sena\ADSI\PROYECTO\WebWuky\MODELOS\BASE DE DATOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MELISSA HERNANDEZ\Desktop\TECNOLOGO ADSI\GitHub\WebWuky\MODELOS\BASE DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5861B1-AB3A-4A64-BB32-016D9E6A2738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="1FN" sheetId="1" r:id="rId1"/>
     <sheet name="2FN" sheetId="2" r:id="rId2"/>
     <sheet name="3FN" sheetId="4" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="5" r:id="rId4"/>
-    <sheet name="Diccionario Datos" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author xml:space="preserve">Santiago Huertas </author>
   </authors>
   <commentList>
-    <comment ref="R17" authorId="0" shapeId="0" xr:uid="{5F9BAF8D-570E-47D9-BE94-4EE4B8762C74}">
+    <comment ref="R17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R20" authorId="0" shapeId="0" xr:uid="{D2CE8EFB-A65F-427E-B06D-DFCFC4D8DB07}">
+    <comment ref="R20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="180">
   <si>
     <t>mascota</t>
   </si>
@@ -536,12 +533,6 @@
     <t>id_externo</t>
   </si>
   <si>
-    <t>ID de la clase acual</t>
-  </si>
-  <si>
-    <t>Impuesto asocuiado al procto</t>
-  </si>
-  <si>
     <t>Transportadora</t>
   </si>
   <si>
@@ -633,162 +624,12 @@
   </si>
   <si>
     <t>factura_cliente</t>
-  </si>
-  <si>
-    <t>Booleano que indica si el roducto es fabricado o comprado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID de la clase </t>
-  </si>
-  <si>
-    <t>Impuesto asociado al producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor númerico de la actualización del producto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha en que se realizó el pedido </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha en que se factura el pedido </t>
-  </si>
-  <si>
-    <t>Valor de la cantidad de productos agregados</t>
-  </si>
-  <si>
-    <t>Atributo booleano que describe si un producto es fabricado o comprado</t>
-  </si>
-  <si>
-    <t>Especificación del tipo de caracteristica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valor de la cantidad del producto comprado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombrre de la categoría </t>
-  </si>
-  <si>
-    <t>se describe si la mascota de sexo "Macho" o "Hembra"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caracteres para ingreso a la plataforma </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impuesto de retención </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titulo/nombre de la clase producto acual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">medidas del producto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Especificación de la categoría </t>
-  </si>
-  <si>
-    <t>Se especifica si la solicitud de pedido se hizo desde facebokk o la tienda virtual</t>
-  </si>
-  <si>
-    <t>Se describe la parte en que estará ubicada la infografí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descrición de la clase producto acual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tamaño de la mascota </t>
-  </si>
-  <si>
-    <t>se describe si el cliente es de genero "Masculino" o "femenino"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor asignado al producto </t>
-  </si>
-  <si>
-    <t>Valor de la suma de los productos</t>
-  </si>
-  <si>
-    <t>Tipo de moneda en que se maneja (atributo solicitado por facebook)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disminución al valor del producto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atributo que permite vincular sesión facebook del cliente </t>
-  </si>
-  <si>
-    <t>Se especifica si el pedido esta en "proceso", "entregado" o "cancelado"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atributo booleano que describe si el producto está habilitado o inhabilitado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atributo que permite vincular sesión gmail del cliente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha en que inicia el estado del pedido </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id del producto que asigna el proveedor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre de la raza de la mascota </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hora en que inicia el estado del pedido </t>
-  </si>
-  <si>
-    <t>Id del producto que asigna Facebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duración de tiempo en el estado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atributo booleano que describe si un producto se encuentra visualizado en facebook o no </t>
-  </si>
-  <si>
-    <t>Se describe si la factura esta en elaboración o ya fue emitida</t>
-  </si>
-  <si>
-    <t>Atributo booleano que describe si un producto se encuentra disponible o no disponible en Facebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha en que inicia el estado de la factura </t>
-  </si>
-  <si>
-    <t>Especificidad del producto</t>
-  </si>
-  <si>
-    <t>se describe si la mascota es "Perro" o "Gato"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hora en que inicia el estado de de la factura </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor de la cantidad de productos en Stock </t>
-  </si>
-  <si>
-    <t>telefono_proveedor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id de la clase actual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre de la marca del producto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirección de enlace de donde se extrae la imagen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fecha de la afiliación a la entidad </t>
-  </si>
-  <si>
-    <t>Se describe las entidades como "eps" "arl" "pensión"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -835,7 +676,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -848,14 +689,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -878,79 +713,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1042,9 +809,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1053,75 +817,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1409,11 +1104,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AN23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,11 +1951,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AN30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,7 +2005,7 @@
     <row r="1" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:40" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="25" t="s">
@@ -2330,7 +2025,7 @@
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>35</v>
@@ -2341,14 +2036,14 @@
       </c>
       <c r="Q2" s="20"/>
       <c r="R2" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S2" s="20"/>
       <c r="T2" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="V2" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="W2" s="20"/>
       <c r="X2" s="24" t="s">
@@ -2402,10 +2097,10 @@
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="13" t="s">
@@ -2417,7 +2112,7 @@
       </c>
       <c r="S3" s="6"/>
       <c r="T3" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="V3" s="28" t="s">
         <v>95</v>
@@ -2456,7 +2151,7 @@
     </row>
     <row r="4" spans="2:40" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>17</v>
@@ -2489,7 +2184,7 @@
         <v>131</v>
       </c>
       <c r="V4" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="X4" s="13" t="s">
         <v>54</v>
@@ -2519,7 +2214,7 @@
     </row>
     <row r="5" spans="2:40" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>6</v>
@@ -2551,7 +2246,7 @@
         <v>132</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Z5" s="13" t="s">
         <v>62</v>
@@ -2603,10 +2298,10 @@
         <v>50</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V6" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Z6" s="13" t="s">
         <v>64</v>
@@ -2638,7 +2333,7 @@
         <v>47</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Z7" s="13" t="s">
         <v>65</v>
@@ -2676,10 +2371,10 @@
         <v>48</v>
       </c>
       <c r="T8" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB8" s="28" t="s">
         <v>95</v>
@@ -2703,10 +2398,10 @@
         <v>95</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="V9" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Z9" s="25" t="s">
         <v>106</v>
@@ -2745,7 +2440,7 @@
         <v>82</v>
       </c>
       <c r="T10" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z10" s="28" t="s">
         <v>95</v>
@@ -2805,7 +2500,7 @@
       <c r="P12" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="32"/>
+      <c r="U12" s="31"/>
       <c r="Z12" s="28" t="s">
         <v>108</v>
       </c>
@@ -2823,7 +2518,7 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="L13" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N13" s="13" t="s">
         <v>95</v>
@@ -2832,9 +2527,9 @@
         <v>101</v>
       </c>
       <c r="R13" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="U13" s="32"/>
+        <v>179</v>
+      </c>
+      <c r="U13" s="31"/>
     </row>
     <row r="14" spans="2:40" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
@@ -2859,7 +2554,7 @@
       <c r="R14" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="U14" s="33"/>
+      <c r="U14" s="32"/>
       <c r="AH14" s="25" t="s">
         <v>109</v>
       </c>
@@ -2880,9 +2575,9 @@
         <v>30</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="U15" s="32"/>
+        <v>174</v>
+      </c>
+      <c r="U15" s="31"/>
       <c r="AH15" s="13" t="s">
         <v>95</v>
       </c>
@@ -2903,9 +2598,9 @@
         <v>43</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="U16" s="32"/>
+        <v>172</v>
+      </c>
+      <c r="U16" s="31"/>
       <c r="AH16" s="13" t="s">
         <v>19</v>
       </c>
@@ -2927,9 +2622,9 @@
         <v>95</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="U17" s="32"/>
+        <v>175</v>
+      </c>
+      <c r="U17" s="31"/>
     </row>
     <row r="18" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -2941,14 +2636,14 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="L18" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N18" s="29" t="s">
         <v>99</v>
       </c>
       <c r="O18" s="6"/>
       <c r="R18" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
@@ -2965,7 +2660,7 @@
       </c>
       <c r="O19" s="6"/>
       <c r="R19" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
@@ -2977,13 +2672,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="L20" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O20" s="6"/>
       <c r="R20" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="U20" s="32"/>
+        <v>178</v>
+      </c>
+      <c r="U20" s="31"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
@@ -2992,15 +2687,15 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="L21" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N21" s="24" t="s">
         <v>98</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="U21" s="32"/>
+        <v>170</v>
+      </c>
+      <c r="U21" s="31"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
@@ -3038,7 +2733,7 @@
       <c r="R25" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="V25" s="32"/>
+      <c r="V25" s="31"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
@@ -3047,7 +2742,7 @@
       <c r="R26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="V26" s="32"/>
+      <c r="V26" s="31"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
@@ -3082,11 +2777,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AN22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView showGridLines="0" topLeftCell="M1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3136,7 +2831,7 @@
     <row r="1" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:40" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="25" t="s">
@@ -3160,7 +2855,7 @@
       </c>
       <c r="M2" s="20"/>
       <c r="N2" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O2" s="20"/>
       <c r="P2" s="24" t="s">
@@ -3234,11 +2929,11 @@
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="13" t="s">
@@ -3373,10 +3068,10 @@
         <v>104</v>
       </c>
       <c r="V6" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Z6" s="25" t="s">
         <v>106</v>
@@ -3397,7 +3092,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P7" s="13" t="s">
         <v>95</v>
@@ -3409,7 +3104,7 @@
         <v>95</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="X7" s="13" t="s">
         <v>126</v>
@@ -3449,7 +3144,7 @@
         <v>131</v>
       </c>
       <c r="X8" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Z8" s="28" t="s">
         <v>108</v>
@@ -3497,13 +3192,13 @@
       <c r="I10" s="26"/>
       <c r="M10" s="8"/>
       <c r="N10" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P10" s="29" t="s">
         <v>95</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="X10" s="25" t="s">
         <v>104</v>
@@ -3553,7 +3248,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="26"/>
       <c r="N13" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P13" s="24" t="s">
         <v>98</v>
@@ -3570,14 +3265,14 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="N14" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P14" s="29" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="2:40" ht="21" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C15" s="8"/>
@@ -3587,7 +3282,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="N15" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O15" s="5"/>
     </row>
@@ -3619,7 +3314,7 @@
         <v>141</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
@@ -3648,19 +3343,19 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>143</v>
@@ -3684,1746 +3379,17 @@
       <c r="E21" s="8"/>
       <c r="G21" s="8"/>
       <c r="L21" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="G22" s="8"/>
       <c r="L22" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4C75AD-F356-4103-8493-53DC1F38E408}">
-  <dimension ref="A1:I19"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="11.42578125" style="31"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9B9220-865A-427B-9BBC-3614A906C40D}">
-  <dimension ref="B1:BD32"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" customWidth="1"/>
-    <col min="14" max="15" width="13.85546875" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="18" width="13.85546875" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" customWidth="1"/>
-    <col min="22" max="22" width="2.7109375" customWidth="1"/>
-    <col min="23" max="24" width="19.28515625" customWidth="1"/>
-    <col min="25" max="25" width="2.7109375" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" customWidth="1"/>
-    <col min="28" max="28" width="2.7109375" customWidth="1"/>
-    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14" customWidth="1"/>
-    <col min="31" max="31" width="2.7109375" customWidth="1"/>
-    <col min="32" max="32" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.7109375" customWidth="1"/>
-    <col min="34" max="34" width="2.7109375" customWidth="1"/>
-    <col min="35" max="35" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.7109375" customWidth="1"/>
-    <col min="37" max="37" width="2.7109375" customWidth="1"/>
-    <col min="38" max="39" width="12.42578125" customWidth="1"/>
-    <col min="40" max="40" width="2.7109375" customWidth="1"/>
-    <col min="41" max="42" width="12.28515625" customWidth="1"/>
-    <col min="43" max="43" width="2.7109375" customWidth="1"/>
-    <col min="46" max="46" width="2.7109375" customWidth="1"/>
-    <col min="47" max="48" width="14.140625" customWidth="1"/>
-    <col min="49" max="49" width="2.7109375" customWidth="1"/>
-    <col min="50" max="50" width="13.85546875" customWidth="1"/>
-    <col min="51" max="51" width="2.7109375" customWidth="1"/>
-    <col min="53" max="53" width="2.7109375" customWidth="1"/>
-    <col min="55" max="55" width="2.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:56" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:56" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="50"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="55"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS2" s="53"/>
-      <c r="AU2" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="AV2" s="35"/>
-      <c r="AX2" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ2" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="BB2" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="BD2" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="2:56" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="U3" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="X3" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA3" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD3" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG3" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ3" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AM3" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP3" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS3" s="15"/>
-      <c r="AU3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV3" s="4"/>
-      <c r="AX3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="BB3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="BD3" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:56" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD4" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG4" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS4" s="13"/>
-      <c r="AU4" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV4" s="4"/>
-      <c r="AX4" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ4" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BB4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD4" s="4"/>
-    </row>
-    <row r="5" spans="2:56" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="V5" s="4"/>
-      <c r="W5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ5" s="13"/>
-      <c r="AL5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS5" s="13"/>
-      <c r="AU5" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV5" s="8"/>
-      <c r="AX5" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB5" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:56" ht="90" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA6" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD6" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ6" s="13"/>
-      <c r="AL6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM6" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AR6" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS6" s="13"/>
-      <c r="AU6" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AV6" s="4"/>
-      <c r="AX6" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ6" s="19"/>
-      <c r="BB6" s="19"/>
-    </row>
-    <row r="7" spans="2:56" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="4"/>
-      <c r="AL7" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP7" s="53"/>
-      <c r="AU7" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV7" s="8"/>
-      <c r="AX7" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AZ7" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="2:56" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="9"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" s="13"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X8" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD8" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG8" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH8" s="4"/>
-      <c r="AO8" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP8" s="13"/>
-      <c r="AZ8" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="2:56" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="U9" s="13"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA9" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="4"/>
-      <c r="AL9" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM9" s="52"/>
-      <c r="AO9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP9" s="13"/>
-      <c r="AU9" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV9" s="35"/>
-      <c r="AX9" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ9" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:56" ht="75" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="46"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="V10" s="4"/>
-      <c r="W10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA10" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AL10" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AM10" s="13"/>
-      <c r="AU10" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV10" s="1"/>
-      <c r="AX10" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="2:56" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="R11" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA11" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AL11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM11" s="13"/>
-      <c r="AU11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="AV11" s="1"/>
-      <c r="AX11" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="2:56" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U12" s="13"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA12" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="4"/>
-      <c r="AL12" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM12" s="13"/>
-      <c r="AX12" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:56" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U13" s="13"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA13" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD13" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG13" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH13" s="4"/>
-    </row>
-    <row r="14" spans="2:56" ht="75" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="R14" s="46"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14" s="13"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA14" s="9"/>
-      <c r="AC14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD14" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="4"/>
-      <c r="AX14" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="2:56" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="Q15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="R15" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="V15" s="5"/>
-      <c r="W15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="4"/>
-      <c r="AC15" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD15" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="4"/>
-      <c r="AX15" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="2:56" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="Q16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="W16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="4"/>
-      <c r="AC16" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD16" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG16" s="13"/>
-      <c r="AX16" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:33" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="W17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="4"/>
-      <c r="AC17" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD17" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG17" s="13"/>
-    </row>
-    <row r="18" spans="2:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="W18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="4"/>
-      <c r="AC18" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD18" s="9"/>
-      <c r="AF18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG18" s="13"/>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="W19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="4"/>
-    </row>
-    <row r="20" spans="2:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="Y20" s="4"/>
-      <c r="AF20" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG20" s="48"/>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="W21" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="X21" s="44"/>
-      <c r="AF21" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG21" s="13"/>
-    </row>
-    <row r="22" spans="2:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="W22" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="X22" s="13"/>
-      <c r="AF22" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG22" s="13"/>
-    </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="W23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="X23" s="13"/>
-    </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B24" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B25" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="W25" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="X25" s="46"/>
-    </row>
-    <row r="26" spans="2:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="X26" s="36" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="W27" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="X27" s="13"/>
-    </row>
-    <row r="28" spans="2:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="W28" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="X28" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="W30" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="X30" s="46"/>
-    </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="W31" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="X31" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="2:33" ht="60" x14ac:dyDescent="0.25">
-      <c r="W32" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="X32" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Q10:R10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/MODELOS/BASE DE DATOS/Normalización.xlsx
+++ b/MODELOS/BASE DE DATOS/Normalización.xlsx
@@ -1,37 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MELISSA HERNANDEZ\Desktop\TECNOLOGO ADSI\GitHub\WebWuky\MODELOS\BASE DE DATOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sena\ADSI\PROYECTO\WebWuky\MODELOS\BASE DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D860F57C-9716-4415-8952-A087015EB7EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="10545" yWindow="15" windowWidth="9885" windowHeight="10650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1FN" sheetId="1" r:id="rId1"/>
     <sheet name="2FN" sheetId="2" r:id="rId2"/>
     <sheet name="3FN" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author xml:space="preserve">Santiago Huertas </author>
   </authors>
   <commentList>
-    <comment ref="R17" authorId="0" shapeId="0">
+    <comment ref="R17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R20" authorId="0" shapeId="0">
+    <comment ref="R20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -629,8 +639,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,6 +685,13 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -717,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -816,6 +833,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1104,11 +1124,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AN23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,11 +1971,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AN30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,7 +2489,7 @@
       <c r="R11" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="Z11" s="28" t="s">
+      <c r="Z11" s="34" t="s">
         <v>22</v>
       </c>
       <c r="AF11" s="13" t="s">
@@ -2772,16 +2792,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AN22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="M1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MODELOS/BASE DE DATOS/Normalización.xlsx
+++ b/MODELOS/BASE DE DATOS/Normalización.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sena\ADSI\PROYECTO\WebWuky\MODELOS\BASE DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D860F57C-9716-4415-8952-A087015EB7EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C2172D-D319-405B-A79B-149D3DECCEF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="15" windowWidth="9885" windowHeight="10650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="7770" windowHeight="10270" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1FN" sheetId="1" r:id="rId1"/>
@@ -1974,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AN30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2801,8 +2801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AN22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" topLeftCell="I1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MODELOS/BASE DE DATOS/Normalización.xlsx
+++ b/MODELOS/BASE DE DATOS/Normalización.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sena\ADSI\PROYECTO\WebWuky\MODELOS\BASE DE DATOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c1687caf08cefbd/Documentos/GitHub/WebWuky/MODELOS/BASE DE DATOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C2172D-D319-405B-A79B-149D3DECCEF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{75C2172D-D319-405B-A79B-149D3DECCEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21702DB4-2A33-48D2-9800-86426D2B3BA8}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="7770" windowHeight="10270" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1FN" sheetId="1" r:id="rId1"/>
@@ -693,7 +693,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,6 +703,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF81CAC1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -836,6 +842,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1975,7 +1984,7 @@
   <dimension ref="B1:AN30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,7 +2555,7 @@
       <c r="P13" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="R13" s="24" t="s">
+      <c r="R13" s="35" t="s">
         <v>179</v>
       </c>
       <c r="U13" s="31"/>
